--- a/Druid.xlsx
+++ b/Druid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhokuu/Documents/WoW Classes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE62C1D-B80B-3F40-85BB-4DE2C9B8A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B4B91-1521-AD4B-8EEA-EF5486BF3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{6E67BB58-BB31-F34A-A556-BDB35A434002}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{6E67BB58-BB31-F34A-A556-BDB35A434002}"/>
   </bookViews>
   <sheets>
     <sheet name="Druid" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
   <si>
     <t>CD</t>
   </si>
@@ -321,6 +321,27 @@
   </si>
   <si>
     <t>all single target damage heals nearby ally for 20% of the dam done</t>
+  </si>
+  <si>
+    <t>Solar Beam</t>
+  </si>
+  <si>
+    <t>8,400 mana</t>
+  </si>
+  <si>
+    <t>spawns beam of light, kicked + silenced while remaining in the beam</t>
+  </si>
+  <si>
+    <t>Warrior of Elune</t>
+  </si>
+  <si>
+    <t>3 Starfires</t>
+  </si>
+  <si>
+    <t>next 3 Starfires are insta cast and generate 40% increased astral power</t>
+  </si>
+  <si>
+    <t>1 min [45 secs]</t>
   </si>
 </sst>
 </file>
@@ -1928,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C4EEFC-2285-D84A-918C-5676E2F5C92B}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2283,11 +2304,24 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>96</v>
+      </c>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -2587,11 +2621,24 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
+      <c r="B34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
@@ -3658,7 +3705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61783259-16B1-A74D-8651-EBDC440710DF}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6:M21"/>
     </sheetView>
   </sheetViews>
